--- a/biology/Médecine/Bathmotrope/Bathmotrope.xlsx
+++ b/biology/Médecine/Bathmotrope/Bathmotrope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bathmotropisme (du grec ancien βαθμός, bathmos : « marche, rang, seuil » et τρόπος, tropos : « tourné vers ») renvoie à l'excitabilité cardiaque. Le terme est notamment utilisé pour décrire les effets de différents agents sur cette excitabilité. Les effets bathmotropes positifs augmentent la réponse du muscle à la stimulation nerveuse, tandis que les effets bathmotropes négatifs diminuent la réponse du muscle à la stimulation. Le bathmotropisme ou la facilité de génération d'un potentiel d'action est liée à la fois à l'amplitude du potentiel de repos et à l'état d'activation des canaux sodiques membranaires qui sont responsables du passage du potentiel du repos au seuil d'activation du potentiel d'action (PA). 
 Divers médicaments et autres facteurs agissent sur le potentiel de repos en le rapprochant du seuil du PA, un potentiel d'action est donc obtenu plus facilement et plus rapidement. De même, lorsque les canaux sodiques sont dans un état de plus grande activation, l'afflux d'ions sodium qui permet à la membrane d'atteindre le seuil du PA se produit plus facilement. Dans les deux cas, l'excitabilité du myocarde est augmentée.
@@ -512,7 +524,9 @@
           <t>Bathmotropes positifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'hypocalcémie : le calcium bloque les canaux sodiques, ce qui empêche la dépolarisation, donc une diminution du calcium permet une augmentation du passage du sodium et abaisse le seuil de dépolarisation.
 Hyperkaliémie légère à modérée : provoquant une augmentation du potentiel de repos par diminution de la diffusion passive de K+.
@@ -547,7 +561,9 @@
           <t>Bathmotropes négatifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypercalcémie : augmente le seuil de dépolarisation par diminution de l'activité des canaux Na+ voltage dépendants.
 L'hyperkaliémie modérée à sévère inactive les canaux sodium et rend la cellule +/- réfractaire
